--- a/Symphony/2021/June/All Details/14.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/14.06.2021/MC Bank Statement June-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\June\All Details\13.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\June\All Details\14.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>8801715116767:</t>
         </r>
@@ -57,10 +57,37 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hand Wash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 Led Bulb +2 Hand Wash + 2 Tep</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tutul bKash Wrong Number Tranfer </t>
         </r>
       </text>
     </comment>
@@ -69,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="259">
   <si>
     <t>Date</t>
   </si>
@@ -704,9 +731,6 @@
     <t>P=Amir Mobile Zone</t>
   </si>
   <si>
-    <t>B=Molla Enterprise</t>
-  </si>
-  <si>
     <t>31.05.2021</t>
   </si>
   <si>
@@ -818,9 +842,6 @@
     <t>Naj=Cd Sound</t>
   </si>
   <si>
-    <t>Now Due</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -836,25 +857,22 @@
     <t>12.06.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">DSR </t>
-  </si>
-  <si>
     <t>Khalifa Electronics</t>
   </si>
   <si>
     <t>13.06.2021</t>
   </si>
   <si>
-    <t>Date: 13.06.2021</t>
+    <t>14.06.2021</t>
   </si>
   <si>
-    <t>Anika Telecom</t>
+    <t>Date: 14.06.2021</t>
   </si>
   <si>
-    <t>Malonchi</t>
+    <t>Teleview Mobile</t>
   </si>
   <si>
-    <t>Imran Telecom</t>
+    <t>P=Teleview Mobile</t>
   </si>
 </sst>
 </file>
@@ -1164,14 +1182,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="43">
@@ -2140,7 +2158,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3079,9 +3097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3091,23 +3106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="42" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3119,9 +3122,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3131,17 +3131,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3433,15 +3458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247516</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3471,8 +3496,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="962025" y="238126"/>
-          <a:ext cx="209551" cy="290878"/>
+          <a:off x="1009651" y="266701"/>
+          <a:ext cx="171450" cy="237990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,33 +3969,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="354"/>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
+      <c r="A1" s="357"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="355"/>
-      <c r="B2" s="352" t="s">
+      <c r="A2" s="358"/>
+      <c r="B2" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="355"/>
-      <c r="B3" s="353" t="s">
+      <c r="A3" s="358"/>
+      <c r="B3" s="356" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="355"/>
+      <c r="A4" s="358"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +4013,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="355"/>
+      <c r="A5" s="358"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +4031,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="355"/>
+      <c r="A6" s="358"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -4018,7 +4043,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="355"/>
+      <c r="A7" s="358"/>
       <c r="B7" s="38" t="s">
         <v>85</v>
       </c>
@@ -4037,7 +4062,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="355"/>
+      <c r="A8" s="358"/>
       <c r="B8" s="38" t="s">
         <v>86</v>
       </c>
@@ -4056,7 +4081,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="355"/>
+      <c r="A9" s="358"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4075,7 +4100,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="355"/>
+      <c r="A10" s="358"/>
       <c r="B10" s="38" t="s">
         <v>90</v>
       </c>
@@ -4094,7 +4119,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="355"/>
+      <c r="A11" s="358"/>
       <c r="B11" s="38" t="s">
         <v>91</v>
       </c>
@@ -4113,7 +4138,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="355"/>
+      <c r="A12" s="358"/>
       <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4132,7 +4157,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="355"/>
+      <c r="A13" s="358"/>
       <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
@@ -4151,7 +4176,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="355"/>
+      <c r="A14" s="358"/>
       <c r="B14" s="38" t="s">
         <v>94</v>
       </c>
@@ -4170,7 +4195,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="355"/>
+      <c r="A15" s="358"/>
       <c r="B15" s="38" t="s">
         <v>95</v>
       </c>
@@ -4189,7 +4214,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="355"/>
+      <c r="A16" s="358"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -4202,7 +4227,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="355"/>
+      <c r="A17" s="358"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -4215,7 +4240,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="355"/>
+      <c r="A18" s="358"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -4228,7 +4253,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="355"/>
+      <c r="A19" s="358"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -4241,7 +4266,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="355"/>
+      <c r="A20" s="358"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4254,7 +4279,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="355"/>
+      <c r="A21" s="358"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4267,7 +4292,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="355"/>
+      <c r="A22" s="358"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4280,7 +4305,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="355"/>
+      <c r="A23" s="358"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4293,7 +4318,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="355"/>
+      <c r="A24" s="358"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4306,7 +4331,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="355"/>
+      <c r="A25" s="358"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4319,7 +4344,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="355"/>
+      <c r="A26" s="358"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4332,7 +4357,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="355"/>
+      <c r="A27" s="358"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4345,7 +4370,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="355"/>
+      <c r="A28" s="358"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4358,7 +4383,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="355"/>
+      <c r="A29" s="358"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4371,7 +4396,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="355"/>
+      <c r="A30" s="358"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4384,7 +4409,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="355"/>
+      <c r="A31" s="358"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4397,7 +4422,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="355"/>
+      <c r="A32" s="358"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4410,7 +4435,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="355"/>
+      <c r="A33" s="358"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4423,7 +4448,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="355"/>
+      <c r="A34" s="358"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4436,7 +4461,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="355"/>
+      <c r="A35" s="358"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4449,7 +4474,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="355"/>
+      <c r="A36" s="358"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4462,7 +4487,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="355"/>
+      <c r="A37" s="358"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4475,7 +4500,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="355"/>
+      <c r="A38" s="358"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4488,7 +4513,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="355"/>
+      <c r="A39" s="358"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4501,7 +4526,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="355"/>
+      <c r="A40" s="358"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4514,7 +4539,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="355"/>
+      <c r="A41" s="358"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4527,7 +4552,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="355"/>
+      <c r="A42" s="358"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4540,7 +4565,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="355"/>
+      <c r="A43" s="358"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4553,7 +4578,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="355"/>
+      <c r="A44" s="358"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4566,7 +4591,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="355"/>
+      <c r="A45" s="358"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4579,7 +4604,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="355"/>
+      <c r="A46" s="358"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4592,7 +4617,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="355"/>
+      <c r="A47" s="358"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4605,7 +4630,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="355"/>
+      <c r="A48" s="358"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4618,7 +4643,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="355"/>
+      <c r="A49" s="358"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4631,7 +4656,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="355"/>
+      <c r="A50" s="358"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4644,7 +4669,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="355"/>
+      <c r="A51" s="358"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4657,7 +4682,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="355"/>
+      <c r="A52" s="358"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4670,7 +4695,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="355"/>
+      <c r="A53" s="358"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4683,7 +4708,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="355"/>
+      <c r="A54" s="358"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4696,7 +4721,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="355"/>
+      <c r="A55" s="358"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4708,7 +4733,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="355"/>
+      <c r="A56" s="358"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4720,7 +4745,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="355"/>
+      <c r="A57" s="358"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4732,7 +4757,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="355"/>
+      <c r="A58" s="358"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4744,7 +4769,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="355"/>
+      <c r="A59" s="358"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4756,7 +4781,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="355"/>
+      <c r="A60" s="358"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4768,7 +4793,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="355"/>
+      <c r="A61" s="358"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4780,7 +4805,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="355"/>
+      <c r="A62" s="358"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4792,7 +4817,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="355"/>
+      <c r="A63" s="358"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4804,7 +4829,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="355"/>
+      <c r="A64" s="358"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4816,7 +4841,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="355"/>
+      <c r="A65" s="358"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4828,7 +4853,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="355"/>
+      <c r="A66" s="358"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4840,7 +4865,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="355"/>
+      <c r="A67" s="358"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4852,7 +4877,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="355"/>
+      <c r="A68" s="358"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4864,7 +4889,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="355"/>
+      <c r="A69" s="358"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4876,7 +4901,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="355"/>
+      <c r="A70" s="358"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4888,7 +4913,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="355"/>
+      <c r="A71" s="358"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4900,7 +4925,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="355"/>
+      <c r="A72" s="358"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4912,7 +4937,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="355"/>
+      <c r="A73" s="358"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4924,7 +4949,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="355"/>
+      <c r="A74" s="358"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4936,7 +4961,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="355"/>
+      <c r="A75" s="358"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4948,7 +4973,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="355"/>
+      <c r="A76" s="358"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4960,7 +4985,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="355"/>
+      <c r="A77" s="358"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4972,7 +4997,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="355"/>
+      <c r="A78" s="358"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4984,7 +5009,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="355"/>
+      <c r="A79" s="358"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4996,7 +5021,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="355"/>
+      <c r="A80" s="358"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -5008,7 +5033,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="355"/>
+      <c r="A81" s="358"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -5020,7 +5045,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="355"/>
+      <c r="A82" s="358"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -5032,7 +5057,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="355"/>
+      <c r="A83" s="358"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -5072,7 +5097,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5089,33 +5114,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="354"/>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
+      <c r="A1" s="357"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="355"/>
-      <c r="B2" s="352" t="s">
+      <c r="A2" s="358"/>
+      <c r="B2" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="355"/>
-      <c r="B3" s="353" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
+      <c r="A3" s="358"/>
+      <c r="B3" s="356" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="355"/>
+      <c r="A4" s="358"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -5133,7 +5158,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="355"/>
+      <c r="A5" s="358"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -5151,7 +5176,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="355"/>
+      <c r="A6" s="358"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -5163,9 +5188,9 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="355"/>
+      <c r="A7" s="358"/>
       <c r="B7" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="37">
         <v>0</v>
@@ -5182,9 +5207,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="355"/>
+      <c r="A8" s="358"/>
       <c r="B8" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="37">
         <v>145000</v>
@@ -5201,9 +5226,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="355"/>
+      <c r="A9" s="358"/>
       <c r="B9" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="37">
         <v>400000</v>
@@ -5220,9 +5245,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="355"/>
+      <c r="A10" s="358"/>
       <c r="B10" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="40">
         <v>0</v>
@@ -5239,9 +5264,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="355"/>
+      <c r="A11" s="358"/>
       <c r="B11" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="37">
         <v>950000</v>
@@ -5258,9 +5283,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="355"/>
+      <c r="A12" s="358"/>
       <c r="B12" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="37">
         <v>420000</v>
@@ -5277,9 +5302,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="355"/>
+      <c r="A13" s="358"/>
       <c r="B13" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="37">
         <v>370000</v>
@@ -5296,9 +5321,9 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="355"/>
+      <c r="A14" s="358"/>
       <c r="B14" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="37">
         <v>360000</v>
@@ -5315,9 +5340,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="355"/>
+      <c r="A15" s="358"/>
       <c r="B15" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="37">
         <v>250000</v>
@@ -5334,9 +5359,9 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="355"/>
+      <c r="A16" s="358"/>
       <c r="B16" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" s="37">
         <v>0</v>
@@ -5353,9 +5378,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="355"/>
+      <c r="A17" s="358"/>
       <c r="B17" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C17" s="37">
         <v>1000000</v>
@@ -5372,836 +5397,842 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="355"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="358"/>
+      <c r="B18" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="37">
+        <v>640000</v>
+      </c>
+      <c r="D18" s="167">
+        <v>800000</v>
+      </c>
       <c r="E18" s="39">
         <f>E17+C18-D18</f>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="41"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="355"/>
+      <c r="A19" s="358"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="41"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="355"/>
+      <c r="A20" s="358"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="41"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="355"/>
+      <c r="A21" s="358"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="39">
         <f>E20+C21-D21</f>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="355"/>
+      <c r="A22" s="358"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="355"/>
+      <c r="A23" s="358"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="39">
         <f>E22+C23-D23</f>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="355"/>
+      <c r="A24" s="358"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="355"/>
+      <c r="A25" s="358"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="355"/>
+      <c r="A26" s="358"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="355"/>
+      <c r="A27" s="358"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="2"/>
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="355"/>
+      <c r="A28" s="358"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="2"/>
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="355"/>
+      <c r="A29" s="358"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="2"/>
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="355"/>
+      <c r="A30" s="358"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="2"/>
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="355"/>
+      <c r="A31" s="358"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="2"/>
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="355"/>
+      <c r="A32" s="358"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="2"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="355"/>
+      <c r="A33" s="358"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
       <c r="E33" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="2"/>
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="355"/>
+      <c r="A34" s="358"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="2"/>
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="355"/>
+      <c r="A35" s="358"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="2"/>
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="355"/>
+      <c r="A36" s="358"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="2"/>
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="355"/>
+      <c r="A37" s="358"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="2"/>
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="355"/>
+      <c r="A38" s="358"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="2"/>
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="355"/>
+      <c r="A39" s="358"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="2"/>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="355"/>
+      <c r="A40" s="358"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="2"/>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="355"/>
+      <c r="A41" s="358"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="2"/>
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="355"/>
+      <c r="A42" s="358"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
       <c r="E42" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="2"/>
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="355"/>
+      <c r="A43" s="358"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="2"/>
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="355"/>
+      <c r="A44" s="358"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="2"/>
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="355"/>
+      <c r="A45" s="358"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="2"/>
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="355"/>
+      <c r="A46" s="358"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="2"/>
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="355"/>
+      <c r="A47" s="358"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
       <c r="E47" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="2"/>
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="355"/>
+      <c r="A48" s="358"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
       <c r="E48" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="2"/>
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="355"/>
+      <c r="A49" s="358"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="2"/>
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="355"/>
+      <c r="A50" s="358"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="2"/>
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="355"/>
+      <c r="A51" s="358"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="2"/>
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="355"/>
+      <c r="A52" s="358"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="2"/>
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="355"/>
+      <c r="A53" s="358"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="2"/>
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="355"/>
+      <c r="A54" s="358"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="2"/>
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="355"/>
+      <c r="A55" s="358"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
       <c r="E55" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="355"/>
+      <c r="A56" s="358"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="355"/>
+      <c r="A57" s="358"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="355"/>
+      <c r="A58" s="358"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="355"/>
+      <c r="A59" s="358"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="355"/>
+      <c r="A60" s="358"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F60" s="30"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="355"/>
+      <c r="A61" s="358"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F61" s="30"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="355"/>
+      <c r="A62" s="358"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="355"/>
+      <c r="A63" s="358"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
       <c r="E63" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="355"/>
+      <c r="A64" s="358"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
       <c r="E64" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="355"/>
+      <c r="A65" s="358"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F65" s="30"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="355"/>
+      <c r="A66" s="358"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="355"/>
+      <c r="A67" s="358"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="355"/>
+      <c r="A68" s="358"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
       <c r="E68" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="355"/>
+      <c r="A69" s="358"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="39">
         <f t="shared" si="0"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="355"/>
+      <c r="A70" s="358"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="39">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="355"/>
+      <c r="A71" s="358"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
       <c r="E71" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="355"/>
+      <c r="A72" s="358"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
       <c r="E72" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="355"/>
+      <c r="A73" s="358"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="355"/>
+      <c r="A74" s="358"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="355"/>
+      <c r="A75" s="358"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
       <c r="E75" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="355"/>
+      <c r="A76" s="358"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
       <c r="E76" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="355"/>
+      <c r="A77" s="358"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
       <c r="E77" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="355"/>
+      <c r="A78" s="358"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
       <c r="E78" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="355"/>
+      <c r="A79" s="358"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
       <c r="E79" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="355"/>
+      <c r="A80" s="358"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
       <c r="E80" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="355"/>
+      <c r="A81" s="358"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
       <c r="E81" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="355"/>
+      <c r="A82" s="358"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
       <c r="E82" s="39">
         <f t="shared" si="1"/>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="355"/>
+      <c r="A83" s="358"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
-        <v>3911041</v>
+        <v>4551041</v>
       </c>
       <c r="D83" s="39">
         <f>SUM(D5:D77)</f>
-        <v>3050000</v>
+        <v>3850000</v>
       </c>
       <c r="E83" s="63">
         <f>E71</f>
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="2"/>
@@ -6227,81 +6258,82 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="18" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="18" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M23:M24"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="117"/>
     <col min="2" max="2" width="9.140625" style="77"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="118"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="363" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="360"/>
-      <c r="O1" s="360"/>
-      <c r="P1" s="360"/>
-      <c r="Q1" s="360"/>
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="363"/>
+      <c r="N1" s="363"/>
+      <c r="O1" s="363"/>
+      <c r="P1" s="363"/>
+      <c r="Q1" s="363"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="364" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="361"/>
-      <c r="C2" s="361"/>
-      <c r="D2" s="361"/>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="361"/>
-      <c r="K2" s="361"/>
-      <c r="L2" s="361"/>
-      <c r="M2" s="361"/>
-      <c r="N2" s="361"/>
-      <c r="O2" s="361"/>
-      <c r="P2" s="361"/>
-      <c r="Q2" s="361"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
+      <c r="Q2" s="364"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="362" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="363"/>
-      <c r="Q3" s="364"/>
+      <c r="A3" s="365" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="367"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6310,52 +6342,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="367" t="s">
+      <c r="B4" s="370" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="356" t="s">
+      <c r="C4" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="356" t="s">
+      <c r="D4" s="359" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="356" t="s">
+      <c r="E4" s="359" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="356" t="s">
+      <c r="F4" s="359" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="356" t="s">
+      <c r="G4" s="359" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="356" t="s">
+      <c r="H4" s="359" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="356" t="s">
+      <c r="I4" s="359" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="356" t="s">
+      <c r="J4" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="356" t="s">
+      <c r="K4" s="359" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="356" t="s">
+      <c r="L4" s="359" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="356" t="s">
+      <c r="M4" s="359" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="356" t="s">
+      <c r="N4" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="358" t="s">
+      <c r="O4" s="361" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="372" t="s">
         <v>111</v>
       </c>
       <c r="Q4" s="193" t="s">
@@ -6368,22 +6400,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="366"/>
-      <c r="B5" s="368"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
-      <c r="G5" s="357"/>
-      <c r="H5" s="357"/>
-      <c r="I5" s="357"/>
-      <c r="J5" s="357"/>
-      <c r="K5" s="357"/>
-      <c r="L5" s="357"/>
-      <c r="M5" s="357"/>
-      <c r="N5" s="357"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="370"/>
+      <c r="A5" s="369"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
+      <c r="F5" s="360"/>
+      <c r="G5" s="360"/>
+      <c r="H5" s="360"/>
+      <c r="I5" s="360"/>
+      <c r="J5" s="360"/>
+      <c r="K5" s="360"/>
+      <c r="L5" s="360"/>
+      <c r="M5" s="360"/>
+      <c r="N5" s="360"/>
+      <c r="O5" s="362"/>
+      <c r="P5" s="373"/>
       <c r="Q5" s="194" t="s">
         <v>68</v>
       </c>
@@ -6396,7 +6428,7 @@
     </row>
     <row r="6" spans="1:24" s="21" customFormat="1">
       <c r="A6" s="128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="129">
         <v>1300</v>
@@ -6438,7 +6470,7 @@
     </row>
     <row r="7" spans="1:24" s="21" customFormat="1">
       <c r="A7" s="128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="129">
         <v>700</v>
@@ -6478,7 +6510,7 @@
     </row>
     <row r="8" spans="1:24" s="21" customFormat="1">
       <c r="A8" s="128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="136">
         <v>500</v>
@@ -6522,7 +6554,7 @@
     </row>
     <row r="9" spans="1:24" s="21" customFormat="1">
       <c r="A9" s="128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="136">
         <v>800</v>
@@ -6564,7 +6596,7 @@
     </row>
     <row r="10" spans="1:24" s="21" customFormat="1">
       <c r="A10" s="128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="136">
         <v>1000</v>
@@ -6606,7 +6638,7 @@
     </row>
     <row r="11" spans="1:24" s="21" customFormat="1">
       <c r="A11" s="128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="136">
         <v>1000</v>
@@ -6646,7 +6678,7 @@
     </row>
     <row r="12" spans="1:24" s="21" customFormat="1">
       <c r="A12" s="128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" s="136">
         <v>500</v>
@@ -6686,7 +6718,7 @@
     </row>
     <row r="13" spans="1:24" s="21" customFormat="1">
       <c r="A13" s="128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="136">
         <v>500</v>
@@ -6726,7 +6758,7 @@
     </row>
     <row r="14" spans="1:24" s="21" customFormat="1">
       <c r="A14" s="128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="136">
         <v>100</v>
@@ -6766,7 +6798,7 @@
     </row>
     <row r="15" spans="1:24" s="21" customFormat="1">
       <c r="A15" s="128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="136">
         <v>1000</v>
@@ -6806,7 +6838,7 @@
     </row>
     <row r="16" spans="1:24" s="21" customFormat="1">
       <c r="A16" s="128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B16" s="136">
         <v>1200</v>
@@ -6845,25 +6877,41 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="21" customFormat="1">
-      <c r="A17" s="128"/>
+      <c r="A17" s="128" t="s">
+        <v>255</v>
+      </c>
       <c r="B17" s="136"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="137"/>
+      <c r="C17" s="129">
+        <v>400</v>
+      </c>
+      <c r="D17" s="137">
+        <v>420</v>
+      </c>
       <c r="E17" s="137"/>
       <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
+      <c r="G17" s="137">
+        <v>190</v>
+      </c>
       <c r="H17" s="137"/>
       <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
+      <c r="J17" s="137">
+        <v>190</v>
+      </c>
+      <c r="K17" s="137">
+        <v>400</v>
+      </c>
       <c r="L17" s="137"/>
       <c r="M17" s="137"/>
-      <c r="N17" s="169"/>
+      <c r="N17" s="169">
+        <v>50</v>
+      </c>
       <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
+      <c r="P17" s="139">
+        <v>200</v>
+      </c>
       <c r="Q17" s="133">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="R17" s="134"/>
       <c r="S17" s="7"/>
@@ -7353,11 +7401,11 @@
       </c>
       <c r="C37" s="155">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
-        <v>460</v>
+        <v>860</v>
       </c>
       <c r="D37" s="155">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>475</v>
       </c>
       <c r="E37" s="155">
         <f t="shared" si="1"/>
@@ -7369,7 +7417,7 @@
       </c>
       <c r="G37" s="155">
         <f>SUM(G6:G36)</f>
-        <v>3310</v>
+        <v>3500</v>
       </c>
       <c r="H37" s="155">
         <f t="shared" si="1"/>
@@ -7381,11 +7429,11 @@
       </c>
       <c r="J37" s="155">
         <f t="shared" si="1"/>
-        <v>1805</v>
+        <v>1995</v>
       </c>
       <c r="K37" s="155">
         <f t="shared" si="1"/>
-        <v>4770</v>
+        <v>5170</v>
       </c>
       <c r="L37" s="155">
         <f t="shared" si="1"/>
@@ -7397,7 +7445,7 @@
       </c>
       <c r="N37" s="172">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O37" s="155">
         <f t="shared" si="1"/>
@@ -7405,11 +7453,11 @@
       </c>
       <c r="P37" s="156">
         <f t="shared" si="1"/>
-        <v>1895</v>
+        <v>2095</v>
       </c>
       <c r="Q37" s="157">
         <f>SUM(Q6:Q36)</f>
-        <v>21835</v>
+        <v>23685</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9412,10 +9460,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9431,6 +9475,10 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9471,14 +9519,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="378" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="377"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="380"/>
       <c r="G1" s="114"/>
       <c r="H1" s="114"/>
       <c r="I1" s="216"/>
@@ -9572,14 +9620,14 @@
       <c r="CS1" s="211"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="378" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="380"/>
+      <c r="A2" s="381" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="383"/>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="216"/>
@@ -9673,14 +9721,14 @@
       <c r="CS2" s="211"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="381" t="s">
+      <c r="A3" s="384" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="382"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="383"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="386"/>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
       <c r="I3" s="216"/>
@@ -9886,7 +9934,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="257" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="92">
         <v>437365</v>
@@ -9996,7 +10044,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="258" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="94">
         <v>434125</v>
@@ -10106,7 +10154,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="258" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="94">
         <v>492065</v>
@@ -10216,7 +10264,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="258" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="94">
         <v>421060</v>
@@ -10326,7 +10374,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="258" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="94">
         <v>387520</v>
@@ -10436,7 +10484,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="258" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="94">
         <v>512840</v>
@@ -10546,7 +10594,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="258" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="94">
         <v>287180</v>
@@ -10656,7 +10704,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="258" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="94">
         <v>224000</v>
@@ -10766,7 +10814,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="258" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B13" s="94">
         <v>480265</v>
@@ -10876,7 +10924,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="258" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="94">
         <v>601725</v>
@@ -10986,7 +11034,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="258" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B15" s="94">
         <v>808690</v>
@@ -11095,13 +11143,21 @@
       <c r="CS15" s="211"/>
     </row>
     <row r="16" spans="1:97">
-      <c r="A16" s="258"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="258" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="94">
+        <v>393395</v>
+      </c>
+      <c r="C16" s="94">
+        <v>380615</v>
+      </c>
+      <c r="D16" s="94">
+        <v>1850</v>
+      </c>
       <c r="E16" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>382465</v>
       </c>
       <c r="F16" s="259"/>
       <c r="G16" s="221"/>
@@ -12834,23 +12890,23 @@
       </c>
       <c r="B33" s="277">
         <f>SUM(B5:B32)</f>
-        <v>5086835</v>
+        <v>5480230</v>
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>5063712</v>
+        <v>5444327</v>
       </c>
       <c r="D33" s="277">
         <f>SUM(D5:D32)</f>
-        <v>21835</v>
+        <v>23685</v>
       </c>
       <c r="E33" s="277">
         <f>SUM(E5:E32)</f>
-        <v>5085547</v>
+        <v>5468012</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>1288</v>
+        <v>12218</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="212"/>
@@ -13045,12 +13101,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="206"/>
-      <c r="B35" s="373" t="s">
+      <c r="B35" s="376" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="376"/>
+      <c r="E35" s="376"/>
       <c r="F35" s="207"/>
       <c r="G35" s="212"/>
       <c r="H35" s="212"/>
@@ -13270,7 +13326,7 @@
         <v>11920</v>
       </c>
       <c r="E37" s="271" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F37" s="207"/>
       <c r="G37" s="212"/>
@@ -13370,7 +13426,7 @@
         <v>192</v>
       </c>
       <c r="B38" s="110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" s="97" t="s">
         <v>88</v>
@@ -13379,7 +13435,7 @@
         <v>1000</v>
       </c>
       <c r="E38" s="251" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="205"/>
       <c r="G38" s="212"/>
@@ -13479,7 +13535,7 @@
         <v>192</v>
       </c>
       <c r="B39" s="110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>88</v>
@@ -13488,7 +13544,7 @@
         <v>2000</v>
       </c>
       <c r="E39" s="251" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F39" s="205"/>
       <c r="G39" s="212"/>
@@ -13897,10 +13953,10 @@
       <c r="D43" s="301"/>
       <c r="E43" s="252"/>
       <c r="F43" s="207"/>
-      <c r="G43" s="374"/>
-      <c r="H43" s="374"/>
-      <c r="I43" s="374"/>
-      <c r="J43" s="374"/>
+      <c r="G43" s="377"/>
+      <c r="H43" s="377"/>
+      <c r="I43" s="377"/>
+      <c r="J43" s="377"/>
       <c r="K43" s="114"/>
       <c r="L43" s="216"/>
       <c r="M43" s="114"/>
@@ -13993,18 +14049,10 @@
       <c r="A44" s="268" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="264" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="264" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44" s="302">
-        <v>20920</v>
-      </c>
-      <c r="E44" s="265" t="s">
-        <v>254</v>
-      </c>
+      <c r="B44" s="264"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="302"/>
+      <c r="E44" s="265"/>
       <c r="F44" s="208"/>
       <c r="G44" s="248"/>
       <c r="H44" s="248"/>
@@ -14224,7 +14272,7 @@
         <v>200</v>
       </c>
       <c r="B46" s="266" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="196">
         <v>1718911905</v>
@@ -14233,7 +14281,7 @@
         <v>375350</v>
       </c>
       <c r="E46" s="267" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F46" s="204"/>
       <c r="G46" s="211"/>
@@ -14346,7 +14394,7 @@
         <v>200</v>
       </c>
       <c r="B47" s="178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="173">
         <v>1716697790</v>
@@ -14369,7 +14417,7 @@
         <v>485815</v>
       </c>
       <c r="K47" s="99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L47" s="197">
         <v>485815</v>
@@ -14468,7 +14516,7 @@
         <v>200</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="173">
         <v>1733624262</v>
@@ -14590,7 +14638,7 @@
         <v>200</v>
       </c>
       <c r="B49" s="103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" s="173">
         <v>1711460131</v>
@@ -14712,7 +14760,7 @@
         <v>200</v>
       </c>
       <c r="B50" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="173">
         <v>1743942020</v>
@@ -14834,7 +14882,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="173">
         <v>1712688979</v>
@@ -14956,7 +15004,7 @@
         <v>200</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="173">
         <v>1739791780</v>
@@ -14965,7 +15013,7 @@
         <v>45620</v>
       </c>
       <c r="E52" s="253" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F52" s="205"/>
       <c r="G52" s="211"/>
@@ -15078,7 +15126,7 @@
         <v>200</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" s="173">
         <v>1723246584</v>
@@ -15087,7 +15135,7 @@
         <v>25745</v>
       </c>
       <c r="E53" s="255" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F53" s="205"/>
       <c r="G53" s="211"/>
@@ -15198,7 +15246,7 @@
         <v>200</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="173">
         <v>1725821212</v>
@@ -15207,7 +15255,7 @@
         <v>15000</v>
       </c>
       <c r="E54" s="255" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F54" s="205"/>
       <c r="G54" s="211"/>
@@ -15333,7 +15381,7 @@
         <v>30000</v>
       </c>
       <c r="K55" s="246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L55" s="197">
         <v>30000</v>
@@ -15429,7 +15477,7 @@
     </row>
     <row r="56" spans="1:97">
       <c r="A56" s="323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="105" t="s">
         <v>178</v>
@@ -15441,7 +15489,7 @@
         <v>50000</v>
       </c>
       <c r="E56" s="255" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F56" s="205"/>
       <c r="G56" s="211"/>
@@ -15563,7 +15611,7 @@
         <v>19000</v>
       </c>
       <c r="E57" s="253" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F57" s="205"/>
       <c r="G57" s="211"/>
@@ -15577,7 +15625,7 @@
         <v>5160</v>
       </c>
       <c r="K57" s="246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L57" s="197">
         <v>5160</v>
@@ -15673,19 +15721,19 @@
     </row>
     <row r="58" spans="1:97">
       <c r="A58" s="323" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B58" s="103" t="s">
         <v>207</v>
       </c>
       <c r="C58" s="173" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D58" s="305">
         <v>10000</v>
       </c>
       <c r="E58" s="254" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F58" s="205"/>
       <c r="G58" s="211"/>
@@ -15788,7 +15836,7 @@
         <v>185</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C59" s="173">
         <v>1789726772</v>
@@ -15797,7 +15845,7 @@
         <v>6800</v>
       </c>
       <c r="E59" s="255" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F59" s="205"/>
       <c r="G59" s="211"/>
@@ -16140,10 +16188,10 @@
         <v>141</v>
       </c>
       <c r="D62" s="305">
-        <v>15000</v>
+        <v>13620</v>
       </c>
       <c r="E62" s="255" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F62" s="204"/>
       <c r="G62" s="211"/>
@@ -16384,10 +16432,10 @@
         <v>144</v>
       </c>
       <c r="D64" s="305">
-        <v>2750</v>
+        <v>2300</v>
       </c>
       <c r="E64" s="253" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F64" s="205"/>
       <c r="G64" s="211"/>
@@ -16497,19 +16545,19 @@
     </row>
     <row r="65" spans="1:97">
       <c r="A65" s="323" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" s="305">
         <v>8580</v>
       </c>
       <c r="E65" s="253" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F65" s="205"/>
       <c r="G65" s="211"/>
@@ -16767,7 +16815,7 @@
         <v>10650</v>
       </c>
       <c r="K67" s="246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L67" s="197">
         <v>10650</v>
@@ -16875,7 +16923,7 @@
         <v>25900</v>
       </c>
       <c r="E68" s="255" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F68" s="205"/>
       <c r="G68" s="211"/>
@@ -16984,11 +17032,19 @@
       <c r="CS68" s="211"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="323"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="323" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="100" t="s">
+        <v>257</v>
+      </c>
       <c r="C69" s="173"/>
-      <c r="D69" s="305"/>
-      <c r="E69" s="254"/>
+      <c r="D69" s="305">
+        <v>46000</v>
+      </c>
+      <c r="E69" s="254" t="s">
+        <v>255</v>
+      </c>
       <c r="F69" s="114"/>
       <c r="G69" s="211"/>
       <c r="H69" s="279" t="s">
@@ -17209,19 +17265,19 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="323" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="103" t="s">
+      <c r="C71" s="173" t="s">
         <v>246</v>
-      </c>
-      <c r="C71" s="173" t="s">
-        <v>247</v>
       </c>
       <c r="D71" s="305">
         <v>51835</v>
       </c>
       <c r="E71" s="253" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F71" s="207"/>
       <c r="G71" s="211"/>
@@ -17343,7 +17399,7 @@
         <v>5160</v>
       </c>
       <c r="E72" s="253" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F72" s="207"/>
       <c r="G72" s="211"/>
@@ -17453,10 +17509,10 @@
     </row>
     <row r="73" spans="1:97">
       <c r="A73" s="323" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="103" t="s">
         <v>222</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>223</v>
       </c>
       <c r="C73" s="173">
         <v>1732469191</v>
@@ -17465,7 +17521,7 @@
         <v>13610</v>
       </c>
       <c r="E73" s="254" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F73" s="207"/>
       <c r="G73" s="211"/>
@@ -17591,7 +17647,7 @@
         <v>24872</v>
       </c>
       <c r="K74" s="245" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L74" s="197">
         <v>24872</v>
@@ -17690,14 +17746,14 @@
         <v>191</v>
       </c>
       <c r="B75" s="103" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C75" s="173"/>
       <c r="D75" s="305">
         <v>10430</v>
       </c>
       <c r="E75" s="255" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F75" s="205"/>
       <c r="G75" s="211"/>
@@ -17711,7 +17767,7 @@
         <v>23186</v>
       </c>
       <c r="K75" s="173" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L75" s="197">
         <v>23186</v>
@@ -17819,7 +17875,7 @@
         <v>48810</v>
       </c>
       <c r="E76" s="254" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F76" s="205"/>
       <c r="G76" s="211"/>
@@ -18060,10 +18116,10 @@
         <v>131</v>
       </c>
       <c r="D78" s="305">
-        <v>40888</v>
+        <v>38888</v>
       </c>
       <c r="E78" s="253" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F78" s="205"/>
       <c r="G78" s="211"/>
@@ -18182,10 +18238,10 @@
         <v>133</v>
       </c>
       <c r="D79" s="305">
-        <v>38700</v>
+        <v>37700</v>
       </c>
       <c r="E79" s="254" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F79" s="205"/>
       <c r="G79" s="211"/>
@@ -18199,7 +18255,7 @@
         <v>2610</v>
       </c>
       <c r="K79" s="246" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L79" s="197">
         <v>2610</v>
@@ -18307,7 +18363,7 @@
         <v>24000</v>
       </c>
       <c r="E80" s="254" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F80" s="205" t="s">
         <v>14</v>
@@ -18431,7 +18487,7 @@
         <v>17585</v>
       </c>
       <c r="E81" s="255" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F81" s="205"/>
       <c r="G81" s="211"/>
@@ -18553,7 +18609,7 @@
         <v>23000</v>
       </c>
       <c r="E82" s="255" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F82" s="207"/>
       <c r="G82" s="211"/>
@@ -18672,10 +18728,10 @@
         <v>137</v>
       </c>
       <c r="D83" s="305">
-        <v>18786</v>
+        <v>17786</v>
       </c>
       <c r="E83" s="253" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F83" s="207"/>
       <c r="G83" s="211"/>
@@ -18916,10 +18972,10 @@
         <v>135</v>
       </c>
       <c r="D85" s="305">
-        <v>6235</v>
+        <v>5235</v>
       </c>
       <c r="E85" s="255" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F85" s="207"/>
       <c r="G85" s="211"/>
@@ -19028,19 +19084,11 @@
       <c r="CS85" s="211"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="323" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" s="103" t="s">
-        <v>259</v>
-      </c>
+      <c r="A86" s="323"/>
+      <c r="B86" s="103"/>
       <c r="C86" s="173"/>
-      <c r="D86" s="305">
-        <v>6820</v>
-      </c>
-      <c r="E86" s="254" t="s">
-        <v>257</v>
-      </c>
+      <c r="D86" s="305"/>
+      <c r="E86" s="254"/>
       <c r="F86" s="207"/>
       <c r="G86" s="211"/>
       <c r="H86" s="279" t="s">
@@ -19273,7 +19321,7 @@
         <v>10650</v>
       </c>
       <c r="E88" s="253" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F88" s="205"/>
       <c r="G88" s="211"/>
@@ -19504,19 +19552,11 @@
       <c r="CS89" s="211"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="323" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" s="100" t="s">
-        <v>261</v>
-      </c>
+      <c r="A90" s="323"/>
+      <c r="B90" s="100"/>
       <c r="C90" s="173"/>
-      <c r="D90" s="305">
-        <v>500</v>
-      </c>
-      <c r="E90" s="254" t="s">
-        <v>257</v>
-      </c>
+      <c r="D90" s="305"/>
+      <c r="E90" s="254"/>
       <c r="F90" s="205"/>
       <c r="G90" s="211"/>
       <c r="H90" s="279" t="s">
@@ -22359,7 +22399,7 @@
         <v>30750</v>
       </c>
       <c r="E117" s="255" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F117" s="211"/>
       <c r="G117" s="211"/>
@@ -22570,14 +22610,14 @@
       <c r="CS118" s="211"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="371" t="s">
+      <c r="A119" s="374" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="372"/>
-      <c r="C119" s="384"/>
+      <c r="B119" s="375"/>
+      <c r="C119" s="387"/>
       <c r="D119" s="309">
         <f>SUM(D37:D118)</f>
-        <v>2224209</v>
+        <v>2235139</v>
       </c>
       <c r="E119" s="299"/>
       <c r="F119" s="211"/>
@@ -22777,14 +22817,14 @@
       <c r="CS120" s="211"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="371" t="s">
+      <c r="A121" s="374" t="s">
         <v>52</v>
       </c>
-      <c r="B121" s="372"/>
-      <c r="C121" s="372"/>
+      <c r="B121" s="375"/>
+      <c r="C121" s="375"/>
       <c r="D121" s="309">
         <f>D119+M121</f>
-        <v>2224209</v>
+        <v>2235139</v>
       </c>
       <c r="E121" s="299"/>
       <c r="F121" s="211"/>
@@ -32801,7 +32841,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32818,35 +32858,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="388" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="387"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="390"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="395"/>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="396"/>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="399"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="388" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="390"/>
+      <c r="A3" s="391" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="392"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="392"/>
+      <c r="E3" s="393"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -32915,14 +32955,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="68">
-        <v>3756636.27</v>
+        <v>3972298</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="53">
         <v>340000</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -32951,14 +32991,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="67">
-        <v>123476.27</v>
+        <v>133486.15</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="65" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="68">
-        <v>861041</v>
+        <v>701041</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="53"/>
@@ -32995,7 +33035,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="166">
-        <v>638510</v>
+        <v>379126.15000000037</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -33027,7 +33067,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="67">
-        <v>21835</v>
+        <v>23685</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="187"/>
@@ -33059,7 +33099,7 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="67">
         <v>0</v>
@@ -33069,7 +33109,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="68">
-        <v>2224209</v>
+        <v>2235139</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="53"/>
@@ -33102,7 +33142,7 @@
       </c>
       <c r="B10" s="71">
         <f>B6-B8-B9</f>
-        <v>101641.27</v>
+        <v>109801.15</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66" t="s">
@@ -33143,7 +33183,7 @@
         <v>110</v>
       </c>
       <c r="E11" s="69">
-        <v>602895</v>
+        <v>803847</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>77</v>
@@ -33246,7 +33286,7 @@
       </c>
       <c r="B14" s="70">
         <f>B5+B6-B8-B9-B12</f>
-        <v>8101641.2699999996</v>
+        <v>8109801.1500000004</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66" t="s">
@@ -33254,7 +33294,7 @@
       </c>
       <c r="E14" s="69">
         <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>8101641.2699999996</v>
+        <v>8109801.1500000004</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="167">
@@ -33322,13 +33362,13 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="22.5">
-      <c r="A16" s="391" t="s">
+      <c r="A16" s="394" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="392"/>
-      <c r="C16" s="392"/>
-      <c r="D16" s="392"/>
-      <c r="E16" s="393"/>
+      <c r="B16" s="395"/>
+      <c r="C16" s="395"/>
+      <c r="D16" s="395"/>
+      <c r="E16" s="396"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
@@ -33365,10 +33405,10 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="73" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E17" s="87">
-        <v>200000</v>
+        <v>186240</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="28"/>
@@ -33400,14 +33440,14 @@
         <v>28</v>
       </c>
       <c r="B18" s="86">
-        <v>40888</v>
+        <v>38888</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="88">
-        <v>186240</v>
+        <v>63290</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="27"/>
@@ -33438,14 +33478,14 @@
         <v>26</v>
       </c>
       <c r="B19" s="85">
-        <v>38700</v>
+        <v>37700</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" s="87">
-        <v>63290</v>
+        <v>45620</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="8"/>
@@ -33473,17 +33513,17 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="75" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B20" s="86">
-        <v>27585</v>
+        <v>51835</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="73" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E20" s="87">
-        <v>45620</v>
+        <v>35745</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="8"/>
@@ -33511,17 +33551,17 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="180" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="B21" s="181">
-        <v>51835</v>
+        <v>375350</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="179" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E21" s="87">
-        <v>35745</v>
+        <v>129725</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="8"/>
@@ -33549,17 +33589,17 @@
     </row>
     <row r="22" spans="1:29" ht="21.75">
       <c r="A22" s="180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="181">
-        <v>375350</v>
+        <v>265917</v>
       </c>
       <c r="C22" s="182"/>
       <c r="D22" s="73" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="E22" s="87">
-        <v>129725</v>
+        <v>46000</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="8"/>
@@ -33587,10 +33627,10 @@
     </row>
     <row r="23" spans="1:29" ht="21.75">
       <c r="A23" s="183" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" s="181">
-        <v>265917</v>
+        <v>209465</v>
       </c>
       <c r="C23" s="182"/>
       <c r="D23" s="179" t="s">
@@ -33625,14 +33665,14 @@
     </row>
     <row r="24" spans="1:29" ht="22.5" thickBot="1">
       <c r="A24" s="184" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B24" s="185">
-        <v>209465</v>
+        <v>200000</v>
       </c>
       <c r="C24" s="186"/>
       <c r="D24" s="176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="177">
         <v>50000</v>
@@ -38519,8 +38559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -39161,715 +39201,678 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="342" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="333" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="337" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="332" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="340" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A1" s="335" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="336" t="s">
+      <c r="B1" s="333" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="345" t="s">
+      <c r="C1" s="339" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="337">
+      <c r="D1" s="334">
         <f ca="1">TODAY()</f>
-        <v>44360</v>
-      </c>
-      <c r="E1" s="335" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="328" t="s">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="343" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="344">
+        <v>1718911905</v>
+      </c>
+      <c r="C2" s="345">
+        <v>425350</v>
+      </c>
+      <c r="D2" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="347" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="348" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="349">
+        <v>129613</v>
+      </c>
+      <c r="D3" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="343" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="344" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="345">
+        <v>25900</v>
+      </c>
+      <c r="D4" s="342" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="347" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="350" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="349">
+        <v>46888</v>
+      </c>
+      <c r="D5" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="347" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="348" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="349">
+        <v>23000</v>
+      </c>
+      <c r="D6" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="347" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="348">
+        <v>1723246584</v>
+      </c>
+      <c r="C7" s="349">
+        <v>35745</v>
+      </c>
+      <c r="D7" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="347" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="348" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="349">
+        <v>10915</v>
+      </c>
+      <c r="D8" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="347" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="348" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="349">
+        <v>3500</v>
+      </c>
+      <c r="D9" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="347" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="348" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="349">
+        <v>14000</v>
+      </c>
+      <c r="D10" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="347" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="348">
+        <v>1733624262</v>
+      </c>
+      <c r="C11" s="349">
+        <v>209465</v>
+      </c>
+      <c r="D11" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="347" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="348" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="349">
+        <v>50000</v>
+      </c>
+      <c r="D12" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="347" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="348" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="349">
+        <v>2750</v>
+      </c>
+      <c r="D13" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="347" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="348">
+        <v>1711460131</v>
+      </c>
+      <c r="C14" s="349">
+        <v>200000</v>
+      </c>
+      <c r="D14" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="347" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="348" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="349">
+        <v>26000</v>
+      </c>
+      <c r="D15" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="347" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="348" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="349">
+        <v>39700</v>
+      </c>
+      <c r="D16" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="347" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="110">
-        <v>1718911905</v>
-      </c>
-      <c r="C2" s="307">
-        <v>425350</v>
-      </c>
-      <c r="D2" s="349">
-        <v>-115525</v>
-      </c>
-      <c r="E2" s="202"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="329" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="331" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="346">
-        <v>129613</v>
-      </c>
-      <c r="D3" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="202"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="328" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="307">
-        <v>25900</v>
-      </c>
-      <c r="D4" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="202"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="329" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="202" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="346">
-        <v>46888</v>
-      </c>
-      <c r="D5" s="351">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="202"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="329" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="331" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="346">
-        <v>23000</v>
-      </c>
-      <c r="D6" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="202"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="329" t="s">
+      <c r="B17" s="350">
+        <v>1716697790</v>
+      </c>
+      <c r="C17" s="349">
+        <v>265917</v>
+      </c>
+      <c r="D17" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="347" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="350" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="349">
+        <v>24000</v>
+      </c>
+      <c r="D18" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="351" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="352" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="353">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="347" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="348" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="349">
+        <v>19000</v>
+      </c>
+      <c r="D20" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="351" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="352" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="353">
+        <v>11235</v>
+      </c>
+      <c r="D21" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="351" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="352" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="353">
+        <v>10650</v>
+      </c>
+      <c r="D22" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="347" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="348">
+        <v>1712688979</v>
+      </c>
+      <c r="C23" s="349">
+        <v>63290</v>
+      </c>
+      <c r="D23" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="347" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="348" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="349">
+        <v>19585</v>
+      </c>
+      <c r="D24" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="343" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="344">
+        <v>1732469191</v>
+      </c>
+      <c r="C25" s="345">
+        <v>21380</v>
+      </c>
+      <c r="D25" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="347" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="348">
+        <v>1739791780</v>
+      </c>
+      <c r="C26" s="349">
+        <v>46620</v>
+      </c>
+      <c r="D26" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="347" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="348">
+        <v>1789726772</v>
+      </c>
+      <c r="C27" s="349">
+        <v>6800</v>
+      </c>
+      <c r="D27" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="351" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="352" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="353">
+        <v>22030</v>
+      </c>
+      <c r="D28" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="343" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="344" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="345">
+        <v>8580</v>
+      </c>
+      <c r="D29" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="347" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="348" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="349">
+        <v>42510</v>
+      </c>
+      <c r="D30" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="347" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="331">
-        <v>1723246584</v>
-      </c>
-      <c r="C7" s="346">
-        <v>35745</v>
-      </c>
-      <c r="D7" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="202"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="329" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="331" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="346">
-        <v>10915</v>
-      </c>
-      <c r="D8" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="202"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="329" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="331" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="346">
-        <v>3500</v>
-      </c>
-      <c r="D9" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="202"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="329" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="331" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="346">
-        <v>14000</v>
-      </c>
-      <c r="D10" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="202"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="329" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="331">
-        <v>1733624262</v>
-      </c>
-      <c r="C11" s="346">
-        <v>209465</v>
-      </c>
-      <c r="D11" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="202"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="329" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="331" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="346">
-        <v>50000</v>
-      </c>
-      <c r="D12" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="202"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="329" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="331" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="346">
-        <v>2750</v>
-      </c>
-      <c r="D13" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="202"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="329" t="s">
+      <c r="B31" s="348">
+        <v>1725821212</v>
+      </c>
+      <c r="C31" s="349">
+        <v>17000</v>
+      </c>
+      <c r="D31" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="354" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="344" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="345">
+        <v>5160</v>
+      </c>
+      <c r="D32" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="343" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="344" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="345">
+        <v>21286</v>
+      </c>
+      <c r="D33" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="347" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="348" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="349">
+        <v>30930</v>
+      </c>
+      <c r="D34" s="342" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="347" t="s">
         <v>239</v>
       </c>
-      <c r="B14" s="331">
-        <v>1711460131</v>
-      </c>
-      <c r="C14" s="346">
-        <v>200000</v>
-      </c>
-      <c r="D14" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="202"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="329" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="331" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="346">
-        <v>26000</v>
-      </c>
-      <c r="D15" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="202"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="329" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="331" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="346">
-        <v>39700</v>
-      </c>
-      <c r="D16" s="351">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="202"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="329" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="202">
-        <v>1716697790</v>
-      </c>
-      <c r="C17" s="346">
-        <v>265917</v>
-      </c>
-      <c r="D17" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E17" s="202"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="329" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="202" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="346">
-        <v>24000</v>
-      </c>
-      <c r="D18" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="202"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="341" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="332" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="347">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="202"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="329" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="331" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="346">
-        <v>19000</v>
-      </c>
-      <c r="D20" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="202"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="341" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="332" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="347">
-        <v>11235</v>
-      </c>
-      <c r="D21" s="351">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="202"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="341" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="332" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="347">
-        <v>10650</v>
-      </c>
-      <c r="D22" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="202"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="329" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="331">
-        <v>1712688979</v>
-      </c>
-      <c r="C23" s="346">
-        <v>63290</v>
-      </c>
-      <c r="D23" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="202"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="329" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="331" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="346">
-        <v>19585</v>
-      </c>
-      <c r="D24" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="202"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="328" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="110">
-        <v>1732469191</v>
-      </c>
-      <c r="C25" s="307">
-        <v>21380</v>
-      </c>
-      <c r="D25" s="349">
-        <v>5000</v>
-      </c>
-      <c r="E25" s="202"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="329" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="331">
-        <v>1739791780</v>
-      </c>
-      <c r="C26" s="346">
-        <v>46620</v>
-      </c>
-      <c r="D26" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="202"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="329" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="331">
-        <v>1789726772</v>
-      </c>
-      <c r="C27" s="346">
-        <v>6800</v>
-      </c>
-      <c r="D27" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="202"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="341" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="332" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="347">
-        <v>22030</v>
-      </c>
-      <c r="D28" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="202"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="328" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="110" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="307">
-        <v>8580</v>
-      </c>
-      <c r="D29" s="349" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="202"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="329" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="331" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="346">
-        <v>42510</v>
-      </c>
-      <c r="D30" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="202"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="329" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="331">
-        <v>1725821212</v>
-      </c>
-      <c r="C31" s="346">
-        <v>17000</v>
-      </c>
-      <c r="D31" s="351">
-        <v>5780</v>
-      </c>
-      <c r="E31" s="202"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="330" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="307">
-        <v>5160</v>
-      </c>
-      <c r="D32" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E32" s="202"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="328" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="307">
-        <v>21286</v>
-      </c>
-      <c r="D33" s="351">
-        <v>500</v>
-      </c>
-      <c r="E33" s="202"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="329" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="331" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="346">
-        <v>30930</v>
-      </c>
-      <c r="D34" s="351">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="202"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="329" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="331">
+      <c r="B35" s="348">
         <v>1743942020</v>
       </c>
-      <c r="C35" s="346">
+      <c r="C35" s="349">
         <v>188285</v>
       </c>
-      <c r="D35" s="350" t="s">
-        <v>250</v>
-      </c>
-      <c r="E35" s="202"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="338"/>
-      <c r="B36" s="334"/>
-      <c r="C36" s="348"/>
-      <c r="D36" s="344"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="D35" s="346" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="347"/>
+      <c r="B36" s="348"/>
+      <c r="C36" s="349"/>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="328"/>
-      <c r="B37" s="339"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="307"/>
-      <c r="D37" s="343"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="D37" s="338"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="329"/>
-      <c r="B38" s="331"/>
-      <c r="C38" s="346"/>
+      <c r="B38" s="330"/>
+      <c r="C38" s="340"/>
       <c r="D38" s="326"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" s="328"/>
       <c r="B39" s="110"/>
       <c r="C39" s="307"/>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" s="328"/>
       <c r="B40" s="110"/>
       <c r="C40" s="307"/>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:4">
       <c r="A41" s="328"/>
       <c r="B41" s="110"/>
       <c r="C41" s="307"/>
       <c r="D41" s="43"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:4">
       <c r="A42" s="329"/>
-      <c r="B42" s="331"/>
-      <c r="C42" s="346"/>
+      <c r="B42" s="330"/>
+      <c r="C42" s="340"/>
       <c r="D42" s="43"/>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="341"/>
-      <c r="B43" s="332"/>
-      <c r="C43" s="347"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="336"/>
+      <c r="B43" s="331"/>
+      <c r="C43" s="341"/>
       <c r="D43" s="43"/>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="341"/>
-      <c r="B44" s="332"/>
-      <c r="C44" s="347"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="336"/>
+      <c r="B44" s="331"/>
+      <c r="C44" s="341"/>
       <c r="D44" s="43"/>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="341"/>
-      <c r="B45" s="332"/>
-      <c r="C45" s="347"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="336"/>
+      <c r="B45" s="331"/>
+      <c r="C45" s="341"/>
       <c r="D45" s="43"/>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="341"/>
-      <c r="B46" s="332"/>
-      <c r="C46" s="347"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="336"/>
+      <c r="B46" s="331"/>
+      <c r="C46" s="341"/>
       <c r="D46" s="43"/>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="341"/>
-      <c r="B47" s="332"/>
-      <c r="C47" s="347"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="336"/>
+      <c r="B47" s="331"/>
+      <c r="C47" s="341"/>
       <c r="D47" s="43"/>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="341"/>
-      <c r="B48" s="332"/>
-      <c r="C48" s="347"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="336"/>
+      <c r="B48" s="331"/>
+      <c r="C48" s="341"/>
       <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="341"/>
-      <c r="B49" s="332"/>
-      <c r="C49" s="347"/>
+      <c r="A49" s="336"/>
+      <c r="B49" s="331"/>
+      <c r="C49" s="341"/>
       <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="341"/>
-      <c r="B50" s="332"/>
-      <c r="C50" s="347"/>
+      <c r="A50" s="336"/>
+      <c r="B50" s="331"/>
+      <c r="C50" s="341"/>
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="341"/>
-      <c r="B51" s="332"/>
-      <c r="C51" s="347"/>
+      <c r="A51" s="336"/>
+      <c r="B51" s="331"/>
+      <c r="C51" s="341"/>
       <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="341"/>
-      <c r="B52" s="332"/>
-      <c r="C52" s="347"/>
+      <c r="A52" s="336"/>
+      <c r="B52" s="331"/>
+      <c r="C52" s="341"/>
       <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="341"/>
-      <c r="B53" s="332"/>
-      <c r="C53" s="347"/>
+      <c r="A53" s="336"/>
+      <c r="B53" s="331"/>
+      <c r="C53" s="341"/>
       <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="341"/>
-      <c r="B54" s="332"/>
-      <c r="C54" s="347"/>
+      <c r="A54" s="336"/>
+      <c r="B54" s="331"/>
+      <c r="C54" s="341"/>
       <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="341"/>
-      <c r="B55" s="332"/>
-      <c r="C55" s="347"/>
+      <c r="A55" s="336"/>
+      <c r="B55" s="331"/>
+      <c r="C55" s="341"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="341"/>
-      <c r="B56" s="332"/>
-      <c r="C56" s="347"/>
+      <c r="A56" s="336"/>
+      <c r="B56" s="331"/>
+      <c r="C56" s="341"/>
       <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="341"/>
-      <c r="B57" s="332"/>
-      <c r="C57" s="347"/>
+      <c r="A57" s="336"/>
+      <c r="B57" s="331"/>
+      <c r="C57" s="341"/>
       <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="341"/>
-      <c r="B58" s="332"/>
-      <c r="C58" s="347"/>
+      <c r="A58" s="336"/>
+      <c r="B58" s="331"/>
+      <c r="C58" s="341"/>
       <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="341"/>
-      <c r="B59" s="332"/>
-      <c r="C59" s="347"/>
+      <c r="A59" s="336"/>
+      <c r="B59" s="331"/>
+      <c r="C59" s="341"/>
       <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="341"/>
-      <c r="B60" s="332"/>
-      <c r="C60" s="347"/>
+      <c r="A60" s="336"/>
+      <c r="B60" s="331"/>
+      <c r="C60" s="341"/>
       <c r="D60" s="43"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="341"/>
-      <c r="B61" s="332"/>
-      <c r="C61" s="347"/>
+      <c r="A61" s="336"/>
+      <c r="B61" s="331"/>
+      <c r="C61" s="341"/>
       <c r="D61" s="43"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="341"/>
-      <c r="B62" s="332"/>
-      <c r="C62" s="347"/>
+      <c r="A62" s="336"/>
+      <c r="B62" s="331"/>
+      <c r="C62" s="341"/>
       <c r="D62" s="43"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="341"/>
-      <c r="B63" s="332"/>
-      <c r="C63" s="347"/>
+      <c r="A63" s="336"/>
+      <c r="B63" s="331"/>
+      <c r="C63" s="341"/>
       <c r="D63" s="43"/>
     </row>
   </sheetData>
@@ -39880,7 +39883,7 @@
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D3:D9 D10:D35" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:D4 D5:D35" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>